--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
